--- a/ccd_configuration/CCD_CivilEnforcement.xlsx
+++ b/ccd_configuration/CCD_CivilEnforcement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="281">
   <si>
     <t xml:space="preserve">Jurisdiction</t>
   </si>
@@ -589,9 +589,6 @@
     <t xml:space="preserve">Court Order</t>
   </si>
   <si>
-    <t xml:space="preserve">AssignToBailiffs</t>
-  </si>
-  <si>
     <t xml:space="preserve">assign</t>
   </si>
   <si>
@@ -732,12 +729,6 @@
   </si>
   <si>
     <t xml:space="preserve">A closed civil enforcement case has been suspended</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assign To Bailiffs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
   </si>
   <si>
     <t xml:space="preserve">SearchInputFields</t>
@@ -915,7 +906,7 @@
     <numFmt numFmtId="166" formatCode="D/M/YY"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1044,14 +1035,6 @@
       <u val="single"/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0433FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1247,7 +1230,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1416,15 +1399,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1432,19 +1419,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1452,11 +1435,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1464,8 +1447,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1473,10 +1456,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1488,7 +1467,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1592,7 +1571,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0433FF"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
@@ -1630,7 +1609,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="1" sqref="H23:J23 E5"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1782,7 +1761,7 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="1" sqref="H23:J23 F10"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1799,7 +1778,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1824,35 +1803,35 @@
         <v>30</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
+        <v>185</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
@@ -1861,10 +1840,10 @@
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>162</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1873,27 +1852,27 @@
       <c r="F3" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
     </row>
     <row r="4" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="n">
@@ -1907,32 +1886,32 @@
         <v>46</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F4" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
     </row>
     <row r="5" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="n">
@@ -1980,7 +1959,7 @@
         <v>74</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F7" s="21" t="n">
         <v>4</v>
@@ -2012,68 +1991,68 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="1" sqref="H23:J23 E5"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="34.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="49" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="49" width="36.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="49" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="49" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="48" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="48" width="36.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="48" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="48" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="26" width="8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+    </row>
+    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-    </row>
-    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56" t="s">
-        <v>237</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>186</v>
+      <c r="F2" s="55" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="56" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2146,7 +2125,7 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="1" sqref="H23:J23 E8"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2164,7 +2143,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2187,13 +2166,13 @@
         <v>30</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2203,10 +2182,10 @@
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>162</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -2215,27 +2194,27 @@
       <c r="F3" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
     </row>
     <row r="4" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="n">
@@ -2249,32 +2228,32 @@
         <v>46</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F4" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
     </row>
     <row r="5" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="n">
@@ -2405,7 +2384,7 @@
   <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="1" sqref="H23:J23 H20"/>
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2427,7 +2406,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="9" t="s">
@@ -2456,16 +2435,16 @@
         <v>4</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2479,31 +2458,31 @@
         <v>35</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>162</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>100</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -2530,7 +2509,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>175</v>
@@ -2558,7 +2537,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>175</v>
@@ -2586,7 +2565,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>175</v>
@@ -2615,7 +2594,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>175</v>
@@ -2644,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>175</v>
@@ -2672,7 +2651,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>175</v>
@@ -2701,7 +2680,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>175</v>
@@ -2730,7 +2709,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>179</v>
@@ -2759,7 +2738,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>179</v>
@@ -2788,7 +2767,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>179</v>
@@ -2817,7 +2796,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>179</v>
@@ -2846,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>179</v>
@@ -2874,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>179</v>
@@ -2902,7 +2881,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>179</v>
@@ -2930,10 +2909,10 @@
         <v>25</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>180</v>
@@ -2958,13 +2937,13 @@
         <v>25</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G19" s="21" t="n">
         <v>3</v>
@@ -2986,10 +2965,10 @@
         <v>25</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>180</v>
@@ -3014,10 +2993,10 @@
         <v>25</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>180</v>
@@ -3042,10 +3021,10 @@
         <v>25</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>180</v>
@@ -3070,10 +3049,10 @@
         <v>25</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>180</v>
@@ -3098,10 +3077,10 @@
         <v>25</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>180</v>
@@ -3126,10 +3105,10 @@
         <v>25</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>180</v>
@@ -3219,7 +3198,7 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="1" sqref="H23:J23 F12"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3235,7 +3214,7 @@
   <sheetData>
     <row r="1" s="26" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3262,16 +3241,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="57" t="s">
         <v>255</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3279,8 +3258,8 @@
         <v>43101</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="59" t="s">
-        <v>259</v>
+      <c r="C4" s="58" t="s">
+        <v>256</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>12</v>
@@ -3303,8 +3282,8 @@
         <v>43101</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="59" t="s">
-        <v>260</v>
+      <c r="C5" s="58" t="s">
+        <v>257</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>12</v>
@@ -3327,8 +3306,8 @@
         <v>43101</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="59" t="s">
-        <v>261</v>
+      <c r="C6" s="58" t="s">
+        <v>258</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>12</v>
@@ -3344,8 +3323,8 @@
       <c r="A7" s="10" t="n">
         <v>43101</v>
       </c>
-      <c r="C7" s="60" t="s">
-        <v>262</v>
+      <c r="C7" s="59" t="s">
+        <v>259</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>12</v>
@@ -3361,8 +3340,8 @@
       <c r="A8" s="10" t="n">
         <v>43101</v>
       </c>
-      <c r="C8" s="60" t="s">
-        <v>263</v>
+      <c r="C8" s="59" t="s">
+        <v>260</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>12</v>
@@ -3378,8 +3357,8 @@
       <c r="A9" s="10" t="n">
         <v>43101</v>
       </c>
-      <c r="C9" s="60" t="s">
-        <v>264</v>
+      <c r="C9" s="59" t="s">
+        <v>261</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>12</v>
@@ -3395,8 +3374,8 @@
       <c r="A10" s="10" t="n">
         <v>43101</v>
       </c>
-      <c r="C10" s="60" t="s">
-        <v>265</v>
+      <c r="C10" s="59" t="s">
+        <v>262</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>12</v>
@@ -3412,8 +3391,8 @@
       <c r="A11" s="10" t="n">
         <v>43101</v>
       </c>
-      <c r="C11" s="60" t="s">
-        <v>266</v>
+      <c r="C11" s="59" t="s">
+        <v>263</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>12</v>
@@ -3429,8 +3408,8 @@
       <c r="A12" s="10" t="n">
         <v>43101</v>
       </c>
-      <c r="C12" s="60" t="s">
-        <v>267</v>
+      <c r="C12" s="59" t="s">
+        <v>264</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>12</v>
@@ -3446,8 +3425,8 @@
       <c r="A13" s="10" t="n">
         <v>43101</v>
       </c>
-      <c r="C13" s="61" t="s">
-        <v>268</v>
+      <c r="C13" s="60" t="s">
+        <v>265</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>12</v>
@@ -3494,7 +3473,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="H23:J23 A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3509,7 +3488,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3532,10 +3511,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3549,10 +3528,10 @@
         <v>35</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3564,10 +3543,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -3580,10 +3559,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -3596,10 +3575,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3611,10 +3590,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3642,7 +3621,7 @@
   <dimension ref="A1:AA91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D67" activeCellId="1" sqref="H23:J23 D67"/>
+      <selection pane="topLeft" activeCell="D67" activeCellId="0" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3658,7 +3637,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3688,7 +3667,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3726,10 +3705,10 @@
         <v>162</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3743,10 +3722,10 @@
         <v>43</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3760,10 +3739,10 @@
         <v>46</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3777,10 +3756,10 @@
         <v>48</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3794,10 +3773,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3811,10 +3790,10 @@
         <v>53</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3828,10 +3807,10 @@
         <v>55</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3845,10 +3824,10 @@
         <v>57</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,10 +3841,10 @@
         <v>60</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3879,10 +3858,10 @@
         <v>62</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,10 +3875,10 @@
         <v>64</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3913,10 +3892,10 @@
         <v>66</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3930,10 +3909,10 @@
         <v>68</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,10 +3926,10 @@
         <v>70</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3964,10 +3943,10 @@
         <v>72</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3981,10 +3960,10 @@
         <v>74</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3998,10 +3977,10 @@
         <v>76</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,10 +3994,10 @@
         <v>43</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4032,10 +4011,10 @@
         <v>46</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4049,10 +4028,10 @@
         <v>48</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4066,10 +4045,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4083,10 +4062,10 @@
         <v>53</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4100,10 +4079,10 @@
         <v>55</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,10 +4096,10 @@
         <v>57</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4134,10 +4113,10 @@
         <v>60</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4151,10 +4130,10 @@
         <v>62</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4168,10 +4147,10 @@
         <v>64</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4185,10 +4164,10 @@
         <v>66</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,10 +4181,10 @@
         <v>68</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4219,10 +4198,10 @@
         <v>70</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4236,10 +4215,10 @@
         <v>72</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4253,10 +4232,10 @@
         <v>74</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4270,10 +4249,10 @@
         <v>76</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4287,10 +4266,10 @@
         <v>43</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F36" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4304,10 +4283,10 @@
         <v>46</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F37" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4321,10 +4300,10 @@
         <v>48</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F38" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4338,10 +4317,10 @@
         <v>50</v>
       </c>
       <c r="E39" s="39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4355,10 +4334,10 @@
         <v>53</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4372,10 +4351,10 @@
         <v>55</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4389,10 +4368,10 @@
         <v>57</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F42" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,10 +4385,10 @@
         <v>60</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4423,10 +4402,10 @@
         <v>62</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4440,10 +4419,10 @@
         <v>64</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4457,10 +4436,10 @@
         <v>66</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4474,10 +4453,10 @@
         <v>68</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4491,10 +4470,10 @@
         <v>70</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4508,10 +4487,10 @@
         <v>72</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F49" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4525,10 +4504,10 @@
         <v>74</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F50" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,10 +4521,10 @@
         <v>76</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F51" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4559,10 +4538,10 @@
         <v>43</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4576,10 +4555,10 @@
         <v>46</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4593,10 +4572,10 @@
         <v>48</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4610,10 +4589,10 @@
         <v>50</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4627,10 +4606,10 @@
         <v>53</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F56" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4644,10 +4623,10 @@
         <v>55</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F57" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4661,10 +4640,10 @@
         <v>57</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F58" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4678,10 +4657,10 @@
         <v>60</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F59" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4695,10 +4674,10 @@
         <v>62</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F60" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4712,10 +4691,10 @@
         <v>64</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F61" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4729,10 +4708,10 @@
         <v>66</v>
       </c>
       <c r="E62" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F62" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4746,10 +4725,10 @@
         <v>68</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F63" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4763,10 +4742,10 @@
         <v>70</v>
       </c>
       <c r="E64" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F64" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4780,10 +4759,10 @@
         <v>72</v>
       </c>
       <c r="E65" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F65" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4797,10 +4776,10 @@
         <v>74</v>
       </c>
       <c r="E66" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F66" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4814,10 +4793,10 @@
         <v>76</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F67" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4831,10 +4810,10 @@
         <v>80</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F68" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4848,10 +4827,10 @@
         <v>80</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F69" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4865,10 +4844,10 @@
         <v>80</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F70" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4882,10 +4861,10 @@
         <v>80</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F71" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4899,10 +4878,10 @@
         <v>83</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4916,10 +4895,10 @@
         <v>83</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F73" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4933,10 +4912,10 @@
         <v>83</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4950,10 +4929,10 @@
         <v>83</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F75" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4967,10 +4946,10 @@
         <v>85</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F76" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4984,10 +4963,10 @@
         <v>85</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5001,10 +4980,10 @@
         <v>85</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="79" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5018,10 +4997,10 @@
         <v>85</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F79" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,10 +5014,10 @@
         <v>87</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F80" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5052,10 +5031,10 @@
         <v>87</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="82" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5069,10 +5048,10 @@
         <v>87</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5086,10 +5065,10 @@
         <v>87</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F83" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,10 +5082,10 @@
         <v>89</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F84" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,10 +5099,10 @@
         <v>89</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="86" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5137,10 +5116,10 @@
         <v>89</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="87" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5154,10 +5133,10 @@
         <v>89</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5171,10 +5150,10 @@
         <v>92</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F88" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5188,10 +5167,10 @@
         <v>92</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5205,10 +5184,10 @@
         <v>92</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5222,10 +5201,10 @@
         <v>92</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -5252,8 +5231,8 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="H23:J23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5268,7 +5247,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5296,10 +5275,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -5337,10 +5316,10 @@
         <v>161</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5354,10 +5333,10 @@
         <v>172</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5368,13 +5347,13 @@
         <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5385,13 +5364,13 @@
         <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5402,13 +5381,13 @@
         <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5419,13 +5398,13 @@
         <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5436,16 +5415,16 @@
         <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <v>43101</v>
       </c>
@@ -5454,13 +5433,13 @@
         <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>281</v>
+        <v>172</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,13 +5451,13 @@
         <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5490,13 +5469,13 @@
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5508,13 +5487,13 @@
         <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5526,13 +5505,13 @@
         <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5544,13 +5523,13 @@
         <v>25</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5562,16 +5541,16 @@
         <v>25</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="n">
         <v>43101</v>
       </c>
@@ -5580,71 +5559,37 @@
         <v>25</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="F17" s="26" t="s">
         <v>273</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="n">
         <v>43101</v>
       </c>
-      <c r="B18" s="26"/>
       <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="n">
-        <v>43101</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="20" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="n">
-        <v>43101</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5662,7 +5607,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" prompt="Enter a date on or after 01/01/2017" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A20" type="date">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" prompt="Enter a date on or after 01/01/2017" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A18" type="date">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5685,817 +5630,817 @@
   <dimension ref="A1:IU15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="H23:J23 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="61" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="61" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="61" width="25.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="61" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="61" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="255" min="6" style="61" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="256" style="61" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="60" width="30.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="60" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="60" width="25.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="60" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="60" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="255" min="6" style="60" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="256" style="60" width="8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="62" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="63" t="s">
+      <c r="A1" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="67"/>
-      <c r="BG1" s="67"/>
-      <c r="BH1" s="67"/>
-      <c r="BI1" s="67"/>
-      <c r="BJ1" s="67"/>
-      <c r="BK1" s="67"/>
-      <c r="BL1" s="67"/>
-      <c r="BM1" s="67"/>
-      <c r="BN1" s="67"/>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="67"/>
-      <c r="BQ1" s="67"/>
-      <c r="BR1" s="67"/>
-      <c r="BS1" s="67"/>
-      <c r="BT1" s="67"/>
-      <c r="BU1" s="67"/>
-      <c r="BV1" s="67"/>
-      <c r="BW1" s="67"/>
-      <c r="BX1" s="67"/>
-      <c r="BY1" s="67"/>
-      <c r="BZ1" s="67"/>
-      <c r="CA1" s="67"/>
-      <c r="CB1" s="67"/>
-      <c r="CC1" s="67"/>
-      <c r="CD1" s="67"/>
-      <c r="CE1" s="67"/>
-      <c r="CF1" s="67"/>
-      <c r="CG1" s="67"/>
-      <c r="CH1" s="67"/>
-      <c r="CI1" s="67"/>
-      <c r="CJ1" s="67"/>
-      <c r="CK1" s="67"/>
-      <c r="CL1" s="67"/>
-      <c r="CM1" s="67"/>
-      <c r="CN1" s="67"/>
-      <c r="CO1" s="67"/>
-      <c r="CP1" s="67"/>
-      <c r="CQ1" s="67"/>
-      <c r="CR1" s="67"/>
-      <c r="CS1" s="67"/>
-      <c r="CT1" s="67"/>
-      <c r="CU1" s="67"/>
-      <c r="CV1" s="67"/>
-      <c r="CW1" s="67"/>
-      <c r="CX1" s="67"/>
-      <c r="CY1" s="67"/>
-      <c r="CZ1" s="67"/>
-      <c r="DA1" s="67"/>
-      <c r="DB1" s="67"/>
-      <c r="DC1" s="67"/>
-      <c r="DD1" s="67"/>
-      <c r="DE1" s="67"/>
-      <c r="DF1" s="67"/>
-      <c r="DG1" s="67"/>
-      <c r="DH1" s="67"/>
-      <c r="DI1" s="67"/>
-      <c r="DJ1" s="67"/>
-      <c r="DK1" s="67"/>
-      <c r="DL1" s="67"/>
-      <c r="DM1" s="67"/>
-      <c r="DN1" s="67"/>
-      <c r="DO1" s="67"/>
-      <c r="DP1" s="67"/>
-      <c r="DQ1" s="67"/>
-      <c r="DR1" s="67"/>
-      <c r="DS1" s="67"/>
-      <c r="DT1" s="67"/>
-      <c r="DU1" s="67"/>
-      <c r="DV1" s="67"/>
-      <c r="DW1" s="67"/>
-      <c r="DX1" s="67"/>
-      <c r="DY1" s="67"/>
-      <c r="DZ1" s="67"/>
-      <c r="EA1" s="67"/>
-      <c r="EB1" s="67"/>
-      <c r="EC1" s="67"/>
-      <c r="ED1" s="67"/>
-      <c r="EE1" s="67"/>
-      <c r="EF1" s="67"/>
-      <c r="EG1" s="67"/>
-      <c r="EH1" s="67"/>
-      <c r="EI1" s="67"/>
-      <c r="EJ1" s="67"/>
-      <c r="EK1" s="67"/>
-      <c r="EL1" s="67"/>
-      <c r="EM1" s="67"/>
-      <c r="EN1" s="67"/>
-      <c r="EO1" s="67"/>
-      <c r="EP1" s="67"/>
-      <c r="EQ1" s="67"/>
-      <c r="ER1" s="67"/>
-      <c r="ES1" s="67"/>
-      <c r="ET1" s="67"/>
-      <c r="EU1" s="67"/>
-      <c r="EV1" s="67"/>
-      <c r="EW1" s="67"/>
-      <c r="EX1" s="67"/>
-      <c r="EY1" s="67"/>
-      <c r="EZ1" s="67"/>
-      <c r="FA1" s="67"/>
-      <c r="FB1" s="67"/>
-      <c r="FC1" s="67"/>
-      <c r="FD1" s="67"/>
-      <c r="FE1" s="67"/>
-      <c r="FF1" s="67"/>
-      <c r="FG1" s="67"/>
-      <c r="FH1" s="67"/>
-      <c r="FI1" s="67"/>
-      <c r="FJ1" s="67"/>
-      <c r="FK1" s="67"/>
-      <c r="FL1" s="67"/>
-      <c r="FM1" s="67"/>
-      <c r="FN1" s="67"/>
-      <c r="FO1" s="67"/>
-      <c r="FP1" s="67"/>
-      <c r="FQ1" s="67"/>
-      <c r="FR1" s="67"/>
-      <c r="FS1" s="67"/>
-      <c r="FT1" s="67"/>
-      <c r="FU1" s="67"/>
-      <c r="FV1" s="67"/>
-      <c r="FW1" s="67"/>
-      <c r="FX1" s="67"/>
-      <c r="FY1" s="67"/>
-      <c r="FZ1" s="67"/>
-      <c r="GA1" s="67"/>
-      <c r="GB1" s="67"/>
-      <c r="GC1" s="67"/>
-      <c r="GD1" s="67"/>
-      <c r="GE1" s="67"/>
-      <c r="GF1" s="67"/>
-      <c r="GG1" s="67"/>
-      <c r="GH1" s="67"/>
-      <c r="GI1" s="67"/>
-      <c r="GJ1" s="67"/>
-      <c r="GK1" s="67"/>
-      <c r="GL1" s="67"/>
-      <c r="GM1" s="67"/>
-      <c r="GN1" s="67"/>
-      <c r="GO1" s="67"/>
-      <c r="GP1" s="67"/>
-      <c r="GQ1" s="67"/>
-      <c r="GR1" s="67"/>
-      <c r="GS1" s="67"/>
-      <c r="GT1" s="67"/>
-      <c r="GU1" s="67"/>
-      <c r="GV1" s="67"/>
-      <c r="GW1" s="67"/>
-      <c r="GX1" s="67"/>
-      <c r="GY1" s="67"/>
-      <c r="GZ1" s="67"/>
-      <c r="HA1" s="67"/>
-      <c r="HB1" s="67"/>
-      <c r="HC1" s="67"/>
-      <c r="HD1" s="67"/>
-      <c r="HE1" s="67"/>
-      <c r="HF1" s="67"/>
-      <c r="HG1" s="67"/>
-      <c r="HH1" s="67"/>
-      <c r="HI1" s="67"/>
-      <c r="HJ1" s="67"/>
-      <c r="HK1" s="67"/>
-      <c r="HL1" s="67"/>
-      <c r="HM1" s="67"/>
-      <c r="HN1" s="67"/>
-      <c r="HO1" s="67"/>
-      <c r="HP1" s="67"/>
-      <c r="HQ1" s="67"/>
-      <c r="HR1" s="67"/>
-      <c r="HS1" s="67"/>
-      <c r="HT1" s="67"/>
-      <c r="HU1" s="67"/>
-      <c r="HV1" s="67"/>
-      <c r="HW1" s="67"/>
-      <c r="HX1" s="67"/>
-      <c r="HY1" s="67"/>
-      <c r="HZ1" s="67"/>
-      <c r="IA1" s="67"/>
-      <c r="IB1" s="67"/>
-      <c r="IC1" s="67"/>
-      <c r="ID1" s="67"/>
-      <c r="IE1" s="67"/>
-      <c r="IF1" s="67"/>
-      <c r="IG1" s="67"/>
-      <c r="IH1" s="67"/>
-      <c r="II1" s="67"/>
-      <c r="IJ1" s="67"/>
-      <c r="IK1" s="67"/>
-      <c r="IL1" s="67"/>
-      <c r="IM1" s="67"/>
-      <c r="IN1" s="67"/>
-      <c r="IO1" s="67"/>
-      <c r="IP1" s="67"/>
-      <c r="IQ1" s="67"/>
-      <c r="IR1" s="67"/>
-      <c r="IS1" s="67"/>
-      <c r="IT1" s="67"/>
-      <c r="IU1" s="68"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="66"/>
+      <c r="BD1" s="66"/>
+      <c r="BE1" s="66"/>
+      <c r="BF1" s="66"/>
+      <c r="BG1" s="66"/>
+      <c r="BH1" s="66"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="66"/>
+      <c r="BK1" s="66"/>
+      <c r="BL1" s="66"/>
+      <c r="BM1" s="66"/>
+      <c r="BN1" s="66"/>
+      <c r="BO1" s="66"/>
+      <c r="BP1" s="66"/>
+      <c r="BQ1" s="66"/>
+      <c r="BR1" s="66"/>
+      <c r="BS1" s="66"/>
+      <c r="BT1" s="66"/>
+      <c r="BU1" s="66"/>
+      <c r="BV1" s="66"/>
+      <c r="BW1" s="66"/>
+      <c r="BX1" s="66"/>
+      <c r="BY1" s="66"/>
+      <c r="BZ1" s="66"/>
+      <c r="CA1" s="66"/>
+      <c r="CB1" s="66"/>
+      <c r="CC1" s="66"/>
+      <c r="CD1" s="66"/>
+      <c r="CE1" s="66"/>
+      <c r="CF1" s="66"/>
+      <c r="CG1" s="66"/>
+      <c r="CH1" s="66"/>
+      <c r="CI1" s="66"/>
+      <c r="CJ1" s="66"/>
+      <c r="CK1" s="66"/>
+      <c r="CL1" s="66"/>
+      <c r="CM1" s="66"/>
+      <c r="CN1" s="66"/>
+      <c r="CO1" s="66"/>
+      <c r="CP1" s="66"/>
+      <c r="CQ1" s="66"/>
+      <c r="CR1" s="66"/>
+      <c r="CS1" s="66"/>
+      <c r="CT1" s="66"/>
+      <c r="CU1" s="66"/>
+      <c r="CV1" s="66"/>
+      <c r="CW1" s="66"/>
+      <c r="CX1" s="66"/>
+      <c r="CY1" s="66"/>
+      <c r="CZ1" s="66"/>
+      <c r="DA1" s="66"/>
+      <c r="DB1" s="66"/>
+      <c r="DC1" s="66"/>
+      <c r="DD1" s="66"/>
+      <c r="DE1" s="66"/>
+      <c r="DF1" s="66"/>
+      <c r="DG1" s="66"/>
+      <c r="DH1" s="66"/>
+      <c r="DI1" s="66"/>
+      <c r="DJ1" s="66"/>
+      <c r="DK1" s="66"/>
+      <c r="DL1" s="66"/>
+      <c r="DM1" s="66"/>
+      <c r="DN1" s="66"/>
+      <c r="DO1" s="66"/>
+      <c r="DP1" s="66"/>
+      <c r="DQ1" s="66"/>
+      <c r="DR1" s="66"/>
+      <c r="DS1" s="66"/>
+      <c r="DT1" s="66"/>
+      <c r="DU1" s="66"/>
+      <c r="DV1" s="66"/>
+      <c r="DW1" s="66"/>
+      <c r="DX1" s="66"/>
+      <c r="DY1" s="66"/>
+      <c r="DZ1" s="66"/>
+      <c r="EA1" s="66"/>
+      <c r="EB1" s="66"/>
+      <c r="EC1" s="66"/>
+      <c r="ED1" s="66"/>
+      <c r="EE1" s="66"/>
+      <c r="EF1" s="66"/>
+      <c r="EG1" s="66"/>
+      <c r="EH1" s="66"/>
+      <c r="EI1" s="66"/>
+      <c r="EJ1" s="66"/>
+      <c r="EK1" s="66"/>
+      <c r="EL1" s="66"/>
+      <c r="EM1" s="66"/>
+      <c r="EN1" s="66"/>
+      <c r="EO1" s="66"/>
+      <c r="EP1" s="66"/>
+      <c r="EQ1" s="66"/>
+      <c r="ER1" s="66"/>
+      <c r="ES1" s="66"/>
+      <c r="ET1" s="66"/>
+      <c r="EU1" s="66"/>
+      <c r="EV1" s="66"/>
+      <c r="EW1" s="66"/>
+      <c r="EX1" s="66"/>
+      <c r="EY1" s="66"/>
+      <c r="EZ1" s="66"/>
+      <c r="FA1" s="66"/>
+      <c r="FB1" s="66"/>
+      <c r="FC1" s="66"/>
+      <c r="FD1" s="66"/>
+      <c r="FE1" s="66"/>
+      <c r="FF1" s="66"/>
+      <c r="FG1" s="66"/>
+      <c r="FH1" s="66"/>
+      <c r="FI1" s="66"/>
+      <c r="FJ1" s="66"/>
+      <c r="FK1" s="66"/>
+      <c r="FL1" s="66"/>
+      <c r="FM1" s="66"/>
+      <c r="FN1" s="66"/>
+      <c r="FO1" s="66"/>
+      <c r="FP1" s="66"/>
+      <c r="FQ1" s="66"/>
+      <c r="FR1" s="66"/>
+      <c r="FS1" s="66"/>
+      <c r="FT1" s="66"/>
+      <c r="FU1" s="66"/>
+      <c r="FV1" s="66"/>
+      <c r="FW1" s="66"/>
+      <c r="FX1" s="66"/>
+      <c r="FY1" s="66"/>
+      <c r="FZ1" s="66"/>
+      <c r="GA1" s="66"/>
+      <c r="GB1" s="66"/>
+      <c r="GC1" s="66"/>
+      <c r="GD1" s="66"/>
+      <c r="GE1" s="66"/>
+      <c r="GF1" s="66"/>
+      <c r="GG1" s="66"/>
+      <c r="GH1" s="66"/>
+      <c r="GI1" s="66"/>
+      <c r="GJ1" s="66"/>
+      <c r="GK1" s="66"/>
+      <c r="GL1" s="66"/>
+      <c r="GM1" s="66"/>
+      <c r="GN1" s="66"/>
+      <c r="GO1" s="66"/>
+      <c r="GP1" s="66"/>
+      <c r="GQ1" s="66"/>
+      <c r="GR1" s="66"/>
+      <c r="GS1" s="66"/>
+      <c r="GT1" s="66"/>
+      <c r="GU1" s="66"/>
+      <c r="GV1" s="66"/>
+      <c r="GW1" s="66"/>
+      <c r="GX1" s="66"/>
+      <c r="GY1" s="66"/>
+      <c r="GZ1" s="66"/>
+      <c r="HA1" s="66"/>
+      <c r="HB1" s="66"/>
+      <c r="HC1" s="66"/>
+      <c r="HD1" s="66"/>
+      <c r="HE1" s="66"/>
+      <c r="HF1" s="66"/>
+      <c r="HG1" s="66"/>
+      <c r="HH1" s="66"/>
+      <c r="HI1" s="66"/>
+      <c r="HJ1" s="66"/>
+      <c r="HK1" s="66"/>
+      <c r="HL1" s="66"/>
+      <c r="HM1" s="66"/>
+      <c r="HN1" s="66"/>
+      <c r="HO1" s="66"/>
+      <c r="HP1" s="66"/>
+      <c r="HQ1" s="66"/>
+      <c r="HR1" s="66"/>
+      <c r="HS1" s="66"/>
+      <c r="HT1" s="66"/>
+      <c r="HU1" s="66"/>
+      <c r="HV1" s="66"/>
+      <c r="HW1" s="66"/>
+      <c r="HX1" s="66"/>
+      <c r="HY1" s="66"/>
+      <c r="HZ1" s="66"/>
+      <c r="IA1" s="66"/>
+      <c r="IB1" s="66"/>
+      <c r="IC1" s="66"/>
+      <c r="ID1" s="66"/>
+      <c r="IE1" s="66"/>
+      <c r="IF1" s="66"/>
+      <c r="IG1" s="66"/>
+      <c r="IH1" s="66"/>
+      <c r="II1" s="66"/>
+      <c r="IJ1" s="66"/>
+      <c r="IK1" s="66"/>
+      <c r="IL1" s="66"/>
+      <c r="IM1" s="66"/>
+      <c r="IN1" s="66"/>
+      <c r="IO1" s="66"/>
+      <c r="IP1" s="66"/>
+      <c r="IQ1" s="66"/>
+      <c r="IR1" s="66"/>
+      <c r="IS1" s="66"/>
+      <c r="IT1" s="66"/>
+      <c r="IU1" s="67"/>
     </row>
     <row r="2" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="69"/>
-      <c r="C2" s="70" t="s">
+      <c r="A2" s="68"/>
+      <c r="C2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="70"/>
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="70"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="70"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="70"/>
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="70"/>
+      <c r="BR2" s="70"/>
+      <c r="BS2" s="70"/>
+      <c r="BT2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="70"/>
+      <c r="BX2" s="70"/>
+      <c r="BY2" s="70"/>
+      <c r="BZ2" s="70"/>
+      <c r="CA2" s="70"/>
+      <c r="CB2" s="70"/>
+      <c r="CC2" s="70"/>
+      <c r="CD2" s="70"/>
+      <c r="CE2" s="70"/>
+      <c r="CF2" s="70"/>
+      <c r="CG2" s="70"/>
+      <c r="CH2" s="70"/>
+      <c r="CI2" s="70"/>
+      <c r="CJ2" s="70"/>
+      <c r="CK2" s="70"/>
+      <c r="CL2" s="70"/>
+      <c r="CM2" s="70"/>
+      <c r="CN2" s="70"/>
+      <c r="CO2" s="70"/>
+      <c r="CP2" s="70"/>
+      <c r="CQ2" s="70"/>
+      <c r="CR2" s="70"/>
+      <c r="CS2" s="70"/>
+      <c r="CT2" s="70"/>
+      <c r="CU2" s="70"/>
+      <c r="CV2" s="70"/>
+      <c r="CW2" s="70"/>
+      <c r="CX2" s="70"/>
+      <c r="CY2" s="70"/>
+      <c r="CZ2" s="70"/>
+      <c r="DA2" s="70"/>
+      <c r="DB2" s="70"/>
+      <c r="DC2" s="70"/>
+      <c r="DD2" s="70"/>
+      <c r="DE2" s="70"/>
+      <c r="DF2" s="70"/>
+      <c r="DG2" s="70"/>
+      <c r="DH2" s="70"/>
+      <c r="DI2" s="70"/>
+      <c r="DJ2" s="70"/>
+      <c r="DK2" s="70"/>
+      <c r="DL2" s="70"/>
+      <c r="DM2" s="70"/>
+      <c r="DN2" s="70"/>
+      <c r="DO2" s="70"/>
+      <c r="DP2" s="70"/>
+      <c r="DQ2" s="70"/>
+      <c r="DR2" s="70"/>
+      <c r="DS2" s="70"/>
+      <c r="DT2" s="70"/>
+      <c r="DU2" s="70"/>
+      <c r="DV2" s="70"/>
+      <c r="DW2" s="70"/>
+      <c r="DX2" s="70"/>
+      <c r="DY2" s="70"/>
+      <c r="DZ2" s="70"/>
+      <c r="EA2" s="70"/>
+      <c r="EB2" s="70"/>
+      <c r="EC2" s="70"/>
+      <c r="ED2" s="70"/>
+      <c r="EE2" s="70"/>
+      <c r="EF2" s="70"/>
+      <c r="EG2" s="70"/>
+      <c r="EH2" s="70"/>
+      <c r="EI2" s="70"/>
+      <c r="EJ2" s="70"/>
+      <c r="EK2" s="70"/>
+      <c r="EL2" s="70"/>
+      <c r="EM2" s="70"/>
+      <c r="EN2" s="70"/>
+      <c r="EO2" s="70"/>
+      <c r="EP2" s="70"/>
+      <c r="EQ2" s="70"/>
+      <c r="ER2" s="70"/>
+      <c r="ES2" s="70"/>
+      <c r="ET2" s="70"/>
+      <c r="EU2" s="70"/>
+      <c r="EV2" s="70"/>
+      <c r="EW2" s="70"/>
+      <c r="EX2" s="70"/>
+      <c r="EY2" s="70"/>
+      <c r="EZ2" s="70"/>
+      <c r="FA2" s="70"/>
+      <c r="FB2" s="70"/>
+      <c r="FC2" s="70"/>
+      <c r="FD2" s="70"/>
+      <c r="FE2" s="70"/>
+      <c r="FF2" s="70"/>
+      <c r="FG2" s="70"/>
+      <c r="FH2" s="70"/>
+      <c r="FI2" s="70"/>
+      <c r="FJ2" s="70"/>
+      <c r="FK2" s="70"/>
+      <c r="FL2" s="70"/>
+      <c r="FM2" s="70"/>
+      <c r="FN2" s="70"/>
+      <c r="FO2" s="70"/>
+      <c r="FP2" s="70"/>
+      <c r="FQ2" s="70"/>
+      <c r="FR2" s="70"/>
+      <c r="FS2" s="70"/>
+      <c r="FT2" s="70"/>
+      <c r="FU2" s="70"/>
+      <c r="FV2" s="70"/>
+      <c r="FW2" s="70"/>
+      <c r="FX2" s="70"/>
+      <c r="FY2" s="70"/>
+      <c r="FZ2" s="70"/>
+      <c r="GA2" s="70"/>
+      <c r="GB2" s="70"/>
+      <c r="GC2" s="70"/>
+      <c r="GD2" s="70"/>
+      <c r="GE2" s="70"/>
+      <c r="GF2" s="70"/>
+      <c r="GG2" s="70"/>
+      <c r="GH2" s="70"/>
+      <c r="GI2" s="70"/>
+      <c r="GJ2" s="70"/>
+      <c r="GK2" s="70"/>
+      <c r="GL2" s="70"/>
+      <c r="GM2" s="70"/>
+      <c r="GN2" s="70"/>
+      <c r="GO2" s="70"/>
+      <c r="GP2" s="70"/>
+      <c r="GQ2" s="70"/>
+      <c r="GR2" s="70"/>
+      <c r="GS2" s="70"/>
+      <c r="GT2" s="70"/>
+      <c r="GU2" s="70"/>
+      <c r="GV2" s="70"/>
+      <c r="GW2" s="70"/>
+      <c r="GX2" s="70"/>
+      <c r="GY2" s="70"/>
+      <c r="GZ2" s="70"/>
+      <c r="HA2" s="70"/>
+      <c r="HB2" s="70"/>
+      <c r="HC2" s="70"/>
+      <c r="HD2" s="70"/>
+      <c r="HE2" s="70"/>
+      <c r="HF2" s="70"/>
+      <c r="HG2" s="70"/>
+      <c r="HH2" s="70"/>
+      <c r="HI2" s="70"/>
+      <c r="HJ2" s="70"/>
+      <c r="HK2" s="70"/>
+      <c r="HL2" s="70"/>
+      <c r="HM2" s="70"/>
+      <c r="HN2" s="70"/>
+      <c r="HO2" s="70"/>
+      <c r="HP2" s="70"/>
+      <c r="HQ2" s="70"/>
+      <c r="HR2" s="70"/>
+      <c r="HS2" s="70"/>
+      <c r="HT2" s="70"/>
+      <c r="HU2" s="70"/>
+      <c r="HV2" s="70"/>
+      <c r="HW2" s="70"/>
+      <c r="HX2" s="70"/>
+      <c r="HY2" s="70"/>
+      <c r="HZ2" s="70"/>
+      <c r="IA2" s="70"/>
+      <c r="IB2" s="70"/>
+      <c r="IC2" s="70"/>
+      <c r="ID2" s="70"/>
+      <c r="IE2" s="70"/>
+      <c r="IF2" s="70"/>
+      <c r="IG2" s="70"/>
+      <c r="IH2" s="70"/>
+      <c r="II2" s="70"/>
+      <c r="IJ2" s="70"/>
+      <c r="IK2" s="70"/>
+      <c r="IL2" s="70"/>
+      <c r="IM2" s="70"/>
+      <c r="IN2" s="70"/>
+      <c r="IO2" s="70"/>
+      <c r="IP2" s="70"/>
+      <c r="IQ2" s="70"/>
+      <c r="IR2" s="70"/>
+      <c r="IS2" s="70"/>
+      <c r="IT2" s="70"/>
+      <c r="IU2" s="71"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="73" t="s">
         <v>280</v>
       </c>
-      <c r="F2" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71"/>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="71"/>
-      <c r="BB2" s="71"/>
-      <c r="BC2" s="71"/>
-      <c r="BD2" s="71"/>
-      <c r="BE2" s="71"/>
-      <c r="BF2" s="71"/>
-      <c r="BG2" s="71"/>
-      <c r="BH2" s="71"/>
-      <c r="BI2" s="71"/>
-      <c r="BJ2" s="71"/>
-      <c r="BK2" s="71"/>
-      <c r="BL2" s="71"/>
-      <c r="BM2" s="71"/>
-      <c r="BN2" s="71"/>
-      <c r="BO2" s="71"/>
-      <c r="BP2" s="71"/>
-      <c r="BQ2" s="71"/>
-      <c r="BR2" s="71"/>
-      <c r="BS2" s="71"/>
-      <c r="BT2" s="71"/>
-      <c r="BU2" s="71"/>
-      <c r="BV2" s="71"/>
-      <c r="BW2" s="71"/>
-      <c r="BX2" s="71"/>
-      <c r="BY2" s="71"/>
-      <c r="BZ2" s="71"/>
-      <c r="CA2" s="71"/>
-      <c r="CB2" s="71"/>
-      <c r="CC2" s="71"/>
-      <c r="CD2" s="71"/>
-      <c r="CE2" s="71"/>
-      <c r="CF2" s="71"/>
-      <c r="CG2" s="71"/>
-      <c r="CH2" s="71"/>
-      <c r="CI2" s="71"/>
-      <c r="CJ2" s="71"/>
-      <c r="CK2" s="71"/>
-      <c r="CL2" s="71"/>
-      <c r="CM2" s="71"/>
-      <c r="CN2" s="71"/>
-      <c r="CO2" s="71"/>
-      <c r="CP2" s="71"/>
-      <c r="CQ2" s="71"/>
-      <c r="CR2" s="71"/>
-      <c r="CS2" s="71"/>
-      <c r="CT2" s="71"/>
-      <c r="CU2" s="71"/>
-      <c r="CV2" s="71"/>
-      <c r="CW2" s="71"/>
-      <c r="CX2" s="71"/>
-      <c r="CY2" s="71"/>
-      <c r="CZ2" s="71"/>
-      <c r="DA2" s="71"/>
-      <c r="DB2" s="71"/>
-      <c r="DC2" s="71"/>
-      <c r="DD2" s="71"/>
-      <c r="DE2" s="71"/>
-      <c r="DF2" s="71"/>
-      <c r="DG2" s="71"/>
-      <c r="DH2" s="71"/>
-      <c r="DI2" s="71"/>
-      <c r="DJ2" s="71"/>
-      <c r="DK2" s="71"/>
-      <c r="DL2" s="71"/>
-      <c r="DM2" s="71"/>
-      <c r="DN2" s="71"/>
-      <c r="DO2" s="71"/>
-      <c r="DP2" s="71"/>
-      <c r="DQ2" s="71"/>
-      <c r="DR2" s="71"/>
-      <c r="DS2" s="71"/>
-      <c r="DT2" s="71"/>
-      <c r="DU2" s="71"/>
-      <c r="DV2" s="71"/>
-      <c r="DW2" s="71"/>
-      <c r="DX2" s="71"/>
-      <c r="DY2" s="71"/>
-      <c r="DZ2" s="71"/>
-      <c r="EA2" s="71"/>
-      <c r="EB2" s="71"/>
-      <c r="EC2" s="71"/>
-      <c r="ED2" s="71"/>
-      <c r="EE2" s="71"/>
-      <c r="EF2" s="71"/>
-      <c r="EG2" s="71"/>
-      <c r="EH2" s="71"/>
-      <c r="EI2" s="71"/>
-      <c r="EJ2" s="71"/>
-      <c r="EK2" s="71"/>
-      <c r="EL2" s="71"/>
-      <c r="EM2" s="71"/>
-      <c r="EN2" s="71"/>
-      <c r="EO2" s="71"/>
-      <c r="EP2" s="71"/>
-      <c r="EQ2" s="71"/>
-      <c r="ER2" s="71"/>
-      <c r="ES2" s="71"/>
-      <c r="ET2" s="71"/>
-      <c r="EU2" s="71"/>
-      <c r="EV2" s="71"/>
-      <c r="EW2" s="71"/>
-      <c r="EX2" s="71"/>
-      <c r="EY2" s="71"/>
-      <c r="EZ2" s="71"/>
-      <c r="FA2" s="71"/>
-      <c r="FB2" s="71"/>
-      <c r="FC2" s="71"/>
-      <c r="FD2" s="71"/>
-      <c r="FE2" s="71"/>
-      <c r="FF2" s="71"/>
-      <c r="FG2" s="71"/>
-      <c r="FH2" s="71"/>
-      <c r="FI2" s="71"/>
-      <c r="FJ2" s="71"/>
-      <c r="FK2" s="71"/>
-      <c r="FL2" s="71"/>
-      <c r="FM2" s="71"/>
-      <c r="FN2" s="71"/>
-      <c r="FO2" s="71"/>
-      <c r="FP2" s="71"/>
-      <c r="FQ2" s="71"/>
-      <c r="FR2" s="71"/>
-      <c r="FS2" s="71"/>
-      <c r="FT2" s="71"/>
-      <c r="FU2" s="71"/>
-      <c r="FV2" s="71"/>
-      <c r="FW2" s="71"/>
-      <c r="FX2" s="71"/>
-      <c r="FY2" s="71"/>
-      <c r="FZ2" s="71"/>
-      <c r="GA2" s="71"/>
-      <c r="GB2" s="71"/>
-      <c r="GC2" s="71"/>
-      <c r="GD2" s="71"/>
-      <c r="GE2" s="71"/>
-      <c r="GF2" s="71"/>
-      <c r="GG2" s="71"/>
-      <c r="GH2" s="71"/>
-      <c r="GI2" s="71"/>
-      <c r="GJ2" s="71"/>
-      <c r="GK2" s="71"/>
-      <c r="GL2" s="71"/>
-      <c r="GM2" s="71"/>
-      <c r="GN2" s="71"/>
-      <c r="GO2" s="71"/>
-      <c r="GP2" s="71"/>
-      <c r="GQ2" s="71"/>
-      <c r="GR2" s="71"/>
-      <c r="GS2" s="71"/>
-      <c r="GT2" s="71"/>
-      <c r="GU2" s="71"/>
-      <c r="GV2" s="71"/>
-      <c r="GW2" s="71"/>
-      <c r="GX2" s="71"/>
-      <c r="GY2" s="71"/>
-      <c r="GZ2" s="71"/>
-      <c r="HA2" s="71"/>
-      <c r="HB2" s="71"/>
-      <c r="HC2" s="71"/>
-      <c r="HD2" s="71"/>
-      <c r="HE2" s="71"/>
-      <c r="HF2" s="71"/>
-      <c r="HG2" s="71"/>
-      <c r="HH2" s="71"/>
-      <c r="HI2" s="71"/>
-      <c r="HJ2" s="71"/>
-      <c r="HK2" s="71"/>
-      <c r="HL2" s="71"/>
-      <c r="HM2" s="71"/>
-      <c r="HN2" s="71"/>
-      <c r="HO2" s="71"/>
-      <c r="HP2" s="71"/>
-      <c r="HQ2" s="71"/>
-      <c r="HR2" s="71"/>
-      <c r="HS2" s="71"/>
-      <c r="HT2" s="71"/>
-      <c r="HU2" s="71"/>
-      <c r="HV2" s="71"/>
-      <c r="HW2" s="71"/>
-      <c r="HX2" s="71"/>
-      <c r="HY2" s="71"/>
-      <c r="HZ2" s="71"/>
-      <c r="IA2" s="71"/>
-      <c r="IB2" s="71"/>
-      <c r="IC2" s="71"/>
-      <c r="ID2" s="71"/>
-      <c r="IE2" s="71"/>
-      <c r="IF2" s="71"/>
-      <c r="IG2" s="71"/>
-      <c r="IH2" s="71"/>
-      <c r="II2" s="71"/>
-      <c r="IJ2" s="71"/>
-      <c r="IK2" s="71"/>
-      <c r="IL2" s="71"/>
-      <c r="IM2" s="71"/>
-      <c r="IN2" s="71"/>
-      <c r="IO2" s="71"/>
-      <c r="IP2" s="71"/>
-      <c r="IQ2" s="71"/>
-      <c r="IR2" s="71"/>
-      <c r="IS2" s="71"/>
-      <c r="IT2" s="71"/>
-      <c r="IU2" s="72"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>283</v>
-      </c>
-      <c r="E3" s="74" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" s="73" t="s">
-        <v>273</v>
-      </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="71"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="71"/>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="71"/>
-      <c r="BF3" s="71"/>
-      <c r="BG3" s="71"/>
-      <c r="BH3" s="71"/>
-      <c r="BI3" s="71"/>
-      <c r="BJ3" s="71"/>
-      <c r="BK3" s="71"/>
-      <c r="BL3" s="71"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
-      <c r="BR3" s="71"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="71"/>
-      <c r="BU3" s="71"/>
-      <c r="BV3" s="71"/>
-      <c r="BW3" s="71"/>
-      <c r="BX3" s="71"/>
-      <c r="BY3" s="71"/>
-      <c r="BZ3" s="71"/>
-      <c r="CA3" s="71"/>
-      <c r="CB3" s="71"/>
-      <c r="CC3" s="71"/>
-      <c r="CD3" s="71"/>
-      <c r="CE3" s="71"/>
-      <c r="CF3" s="71"/>
-      <c r="CG3" s="71"/>
-      <c r="CH3" s="71"/>
-      <c r="CI3" s="71"/>
-      <c r="CJ3" s="71"/>
-      <c r="CK3" s="71"/>
-      <c r="CL3" s="71"/>
-      <c r="CM3" s="71"/>
-      <c r="CN3" s="71"/>
-      <c r="CO3" s="71"/>
-      <c r="CP3" s="71"/>
-      <c r="CQ3" s="71"/>
-      <c r="CR3" s="71"/>
-      <c r="CS3" s="71"/>
-      <c r="CT3" s="71"/>
-      <c r="CU3" s="71"/>
-      <c r="CV3" s="71"/>
-      <c r="CW3" s="71"/>
-      <c r="CX3" s="71"/>
-      <c r="CY3" s="71"/>
-      <c r="CZ3" s="71"/>
-      <c r="DA3" s="71"/>
-      <c r="DB3" s="71"/>
-      <c r="DC3" s="71"/>
-      <c r="DD3" s="71"/>
-      <c r="DE3" s="71"/>
-      <c r="DF3" s="71"/>
-      <c r="DG3" s="71"/>
-      <c r="DH3" s="71"/>
-      <c r="DI3" s="71"/>
-      <c r="DJ3" s="71"/>
-      <c r="DK3" s="71"/>
-      <c r="DL3" s="71"/>
-      <c r="DM3" s="71"/>
-      <c r="DN3" s="71"/>
-      <c r="DO3" s="71"/>
-      <c r="DP3" s="71"/>
-      <c r="DQ3" s="71"/>
-      <c r="DR3" s="71"/>
-      <c r="DS3" s="71"/>
-      <c r="DT3" s="71"/>
-      <c r="DU3" s="71"/>
-      <c r="DV3" s="71"/>
-      <c r="DW3" s="71"/>
-      <c r="DX3" s="71"/>
-      <c r="DY3" s="71"/>
-      <c r="DZ3" s="71"/>
-      <c r="EA3" s="71"/>
-      <c r="EB3" s="71"/>
-      <c r="EC3" s="71"/>
-      <c r="ED3" s="71"/>
-      <c r="EE3" s="71"/>
-      <c r="EF3" s="71"/>
-      <c r="EG3" s="71"/>
-      <c r="EH3" s="71"/>
-      <c r="EI3" s="71"/>
-      <c r="EJ3" s="71"/>
-      <c r="EK3" s="71"/>
-      <c r="EL3" s="71"/>
-      <c r="EM3" s="71"/>
-      <c r="EN3" s="71"/>
-      <c r="EO3" s="71"/>
-      <c r="EP3" s="71"/>
-      <c r="EQ3" s="71"/>
-      <c r="ER3" s="71"/>
-      <c r="ES3" s="71"/>
-      <c r="ET3" s="71"/>
-      <c r="EU3" s="71"/>
-      <c r="EV3" s="71"/>
-      <c r="EW3" s="71"/>
-      <c r="EX3" s="71"/>
-      <c r="EY3" s="71"/>
-      <c r="EZ3" s="71"/>
-      <c r="FA3" s="71"/>
-      <c r="FB3" s="71"/>
-      <c r="FC3" s="71"/>
-      <c r="FD3" s="71"/>
-      <c r="FE3" s="71"/>
-      <c r="FF3" s="71"/>
-      <c r="FG3" s="71"/>
-      <c r="FH3" s="71"/>
-      <c r="FI3" s="71"/>
-      <c r="FJ3" s="71"/>
-      <c r="FK3" s="71"/>
-      <c r="FL3" s="71"/>
-      <c r="FM3" s="71"/>
-      <c r="FN3" s="71"/>
-      <c r="FO3" s="71"/>
-      <c r="FP3" s="71"/>
-      <c r="FQ3" s="71"/>
-      <c r="FR3" s="71"/>
-      <c r="FS3" s="71"/>
-      <c r="FT3" s="71"/>
-      <c r="FU3" s="71"/>
-      <c r="FV3" s="71"/>
-      <c r="FW3" s="71"/>
-      <c r="FX3" s="71"/>
-      <c r="FY3" s="71"/>
-      <c r="FZ3" s="71"/>
-      <c r="GA3" s="71"/>
-      <c r="GB3" s="71"/>
-      <c r="GC3" s="71"/>
-      <c r="GD3" s="71"/>
-      <c r="GE3" s="71"/>
-      <c r="GF3" s="71"/>
-      <c r="GG3" s="71"/>
-      <c r="GH3" s="71"/>
-      <c r="GI3" s="71"/>
-      <c r="GJ3" s="71"/>
-      <c r="GK3" s="71"/>
-      <c r="GL3" s="71"/>
-      <c r="GM3" s="71"/>
-      <c r="GN3" s="71"/>
-      <c r="GO3" s="71"/>
-      <c r="GP3" s="71"/>
-      <c r="GQ3" s="71"/>
-      <c r="GR3" s="71"/>
-      <c r="GS3" s="71"/>
-      <c r="GT3" s="71"/>
-      <c r="GU3" s="71"/>
-      <c r="GV3" s="71"/>
-      <c r="GW3" s="71"/>
-      <c r="GX3" s="71"/>
-      <c r="GY3" s="71"/>
-      <c r="GZ3" s="71"/>
-      <c r="HA3" s="71"/>
-      <c r="HB3" s="71"/>
-      <c r="HC3" s="71"/>
-      <c r="HD3" s="71"/>
-      <c r="HE3" s="71"/>
-      <c r="HF3" s="71"/>
-      <c r="HG3" s="71"/>
-      <c r="HH3" s="71"/>
-      <c r="HI3" s="71"/>
-      <c r="HJ3" s="71"/>
-      <c r="HK3" s="71"/>
-      <c r="HL3" s="71"/>
-      <c r="HM3" s="71"/>
-      <c r="HN3" s="71"/>
-      <c r="HO3" s="71"/>
-      <c r="HP3" s="71"/>
-      <c r="HQ3" s="71"/>
-      <c r="HR3" s="71"/>
-      <c r="HS3" s="71"/>
-      <c r="HT3" s="71"/>
-      <c r="HU3" s="71"/>
-      <c r="HV3" s="71"/>
-      <c r="HW3" s="71"/>
-      <c r="HX3" s="71"/>
-      <c r="HY3" s="71"/>
-      <c r="HZ3" s="71"/>
-      <c r="IA3" s="71"/>
-      <c r="IB3" s="71"/>
-      <c r="IC3" s="71"/>
-      <c r="ID3" s="71"/>
-      <c r="IE3" s="71"/>
-      <c r="IF3" s="71"/>
-      <c r="IG3" s="71"/>
-      <c r="IH3" s="71"/>
-      <c r="II3" s="71"/>
-      <c r="IJ3" s="71"/>
-      <c r="IK3" s="71"/>
-      <c r="IL3" s="71"/>
-      <c r="IM3" s="71"/>
-      <c r="IN3" s="71"/>
-      <c r="IO3" s="71"/>
-      <c r="IP3" s="71"/>
-      <c r="IQ3" s="71"/>
-      <c r="IR3" s="71"/>
-      <c r="IS3" s="71"/>
-      <c r="IT3" s="71"/>
-      <c r="IU3" s="72"/>
+      <c r="E3" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="70"/>
+      <c r="AS3" s="70"/>
+      <c r="AT3" s="70"/>
+      <c r="AU3" s="70"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="70"/>
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="70"/>
+      <c r="BA3" s="70"/>
+      <c r="BB3" s="70"/>
+      <c r="BC3" s="70"/>
+      <c r="BD3" s="70"/>
+      <c r="BE3" s="70"/>
+      <c r="BF3" s="70"/>
+      <c r="BG3" s="70"/>
+      <c r="BH3" s="70"/>
+      <c r="BI3" s="70"/>
+      <c r="BJ3" s="70"/>
+      <c r="BK3" s="70"/>
+      <c r="BL3" s="70"/>
+      <c r="BM3" s="70"/>
+      <c r="BN3" s="70"/>
+      <c r="BO3" s="70"/>
+      <c r="BP3" s="70"/>
+      <c r="BQ3" s="70"/>
+      <c r="BR3" s="70"/>
+      <c r="BS3" s="70"/>
+      <c r="BT3" s="70"/>
+      <c r="BU3" s="70"/>
+      <c r="BV3" s="70"/>
+      <c r="BW3" s="70"/>
+      <c r="BX3" s="70"/>
+      <c r="BY3" s="70"/>
+      <c r="BZ3" s="70"/>
+      <c r="CA3" s="70"/>
+      <c r="CB3" s="70"/>
+      <c r="CC3" s="70"/>
+      <c r="CD3" s="70"/>
+      <c r="CE3" s="70"/>
+      <c r="CF3" s="70"/>
+      <c r="CG3" s="70"/>
+      <c r="CH3" s="70"/>
+      <c r="CI3" s="70"/>
+      <c r="CJ3" s="70"/>
+      <c r="CK3" s="70"/>
+      <c r="CL3" s="70"/>
+      <c r="CM3" s="70"/>
+      <c r="CN3" s="70"/>
+      <c r="CO3" s="70"/>
+      <c r="CP3" s="70"/>
+      <c r="CQ3" s="70"/>
+      <c r="CR3" s="70"/>
+      <c r="CS3" s="70"/>
+      <c r="CT3" s="70"/>
+      <c r="CU3" s="70"/>
+      <c r="CV3" s="70"/>
+      <c r="CW3" s="70"/>
+      <c r="CX3" s="70"/>
+      <c r="CY3" s="70"/>
+      <c r="CZ3" s="70"/>
+      <c r="DA3" s="70"/>
+      <c r="DB3" s="70"/>
+      <c r="DC3" s="70"/>
+      <c r="DD3" s="70"/>
+      <c r="DE3" s="70"/>
+      <c r="DF3" s="70"/>
+      <c r="DG3" s="70"/>
+      <c r="DH3" s="70"/>
+      <c r="DI3" s="70"/>
+      <c r="DJ3" s="70"/>
+      <c r="DK3" s="70"/>
+      <c r="DL3" s="70"/>
+      <c r="DM3" s="70"/>
+      <c r="DN3" s="70"/>
+      <c r="DO3" s="70"/>
+      <c r="DP3" s="70"/>
+      <c r="DQ3" s="70"/>
+      <c r="DR3" s="70"/>
+      <c r="DS3" s="70"/>
+      <c r="DT3" s="70"/>
+      <c r="DU3" s="70"/>
+      <c r="DV3" s="70"/>
+      <c r="DW3" s="70"/>
+      <c r="DX3" s="70"/>
+      <c r="DY3" s="70"/>
+      <c r="DZ3" s="70"/>
+      <c r="EA3" s="70"/>
+      <c r="EB3" s="70"/>
+      <c r="EC3" s="70"/>
+      <c r="ED3" s="70"/>
+      <c r="EE3" s="70"/>
+      <c r="EF3" s="70"/>
+      <c r="EG3" s="70"/>
+      <c r="EH3" s="70"/>
+      <c r="EI3" s="70"/>
+      <c r="EJ3" s="70"/>
+      <c r="EK3" s="70"/>
+      <c r="EL3" s="70"/>
+      <c r="EM3" s="70"/>
+      <c r="EN3" s="70"/>
+      <c r="EO3" s="70"/>
+      <c r="EP3" s="70"/>
+      <c r="EQ3" s="70"/>
+      <c r="ER3" s="70"/>
+      <c r="ES3" s="70"/>
+      <c r="ET3" s="70"/>
+      <c r="EU3" s="70"/>
+      <c r="EV3" s="70"/>
+      <c r="EW3" s="70"/>
+      <c r="EX3" s="70"/>
+      <c r="EY3" s="70"/>
+      <c r="EZ3" s="70"/>
+      <c r="FA3" s="70"/>
+      <c r="FB3" s="70"/>
+      <c r="FC3" s="70"/>
+      <c r="FD3" s="70"/>
+      <c r="FE3" s="70"/>
+      <c r="FF3" s="70"/>
+      <c r="FG3" s="70"/>
+      <c r="FH3" s="70"/>
+      <c r="FI3" s="70"/>
+      <c r="FJ3" s="70"/>
+      <c r="FK3" s="70"/>
+      <c r="FL3" s="70"/>
+      <c r="FM3" s="70"/>
+      <c r="FN3" s="70"/>
+      <c r="FO3" s="70"/>
+      <c r="FP3" s="70"/>
+      <c r="FQ3" s="70"/>
+      <c r="FR3" s="70"/>
+      <c r="FS3" s="70"/>
+      <c r="FT3" s="70"/>
+      <c r="FU3" s="70"/>
+      <c r="FV3" s="70"/>
+      <c r="FW3" s="70"/>
+      <c r="FX3" s="70"/>
+      <c r="FY3" s="70"/>
+      <c r="FZ3" s="70"/>
+      <c r="GA3" s="70"/>
+      <c r="GB3" s="70"/>
+      <c r="GC3" s="70"/>
+      <c r="GD3" s="70"/>
+      <c r="GE3" s="70"/>
+      <c r="GF3" s="70"/>
+      <c r="GG3" s="70"/>
+      <c r="GH3" s="70"/>
+      <c r="GI3" s="70"/>
+      <c r="GJ3" s="70"/>
+      <c r="GK3" s="70"/>
+      <c r="GL3" s="70"/>
+      <c r="GM3" s="70"/>
+      <c r="GN3" s="70"/>
+      <c r="GO3" s="70"/>
+      <c r="GP3" s="70"/>
+      <c r="GQ3" s="70"/>
+      <c r="GR3" s="70"/>
+      <c r="GS3" s="70"/>
+      <c r="GT3" s="70"/>
+      <c r="GU3" s="70"/>
+      <c r="GV3" s="70"/>
+      <c r="GW3" s="70"/>
+      <c r="GX3" s="70"/>
+      <c r="GY3" s="70"/>
+      <c r="GZ3" s="70"/>
+      <c r="HA3" s="70"/>
+      <c r="HB3" s="70"/>
+      <c r="HC3" s="70"/>
+      <c r="HD3" s="70"/>
+      <c r="HE3" s="70"/>
+      <c r="HF3" s="70"/>
+      <c r="HG3" s="70"/>
+      <c r="HH3" s="70"/>
+      <c r="HI3" s="70"/>
+      <c r="HJ3" s="70"/>
+      <c r="HK3" s="70"/>
+      <c r="HL3" s="70"/>
+      <c r="HM3" s="70"/>
+      <c r="HN3" s="70"/>
+      <c r="HO3" s="70"/>
+      <c r="HP3" s="70"/>
+      <c r="HQ3" s="70"/>
+      <c r="HR3" s="70"/>
+      <c r="HS3" s="70"/>
+      <c r="HT3" s="70"/>
+      <c r="HU3" s="70"/>
+      <c r="HV3" s="70"/>
+      <c r="HW3" s="70"/>
+      <c r="HX3" s="70"/>
+      <c r="HY3" s="70"/>
+      <c r="HZ3" s="70"/>
+      <c r="IA3" s="70"/>
+      <c r="IB3" s="70"/>
+      <c r="IC3" s="70"/>
+      <c r="ID3" s="70"/>
+      <c r="IE3" s="70"/>
+      <c r="IF3" s="70"/>
+      <c r="IG3" s="70"/>
+      <c r="IH3" s="70"/>
+      <c r="II3" s="70"/>
+      <c r="IJ3" s="70"/>
+      <c r="IK3" s="70"/>
+      <c r="IL3" s="70"/>
+      <c r="IM3" s="70"/>
+      <c r="IN3" s="70"/>
+      <c r="IO3" s="70"/>
+      <c r="IP3" s="70"/>
+      <c r="IQ3" s="70"/>
+      <c r="IR3" s="70"/>
+      <c r="IS3" s="70"/>
+      <c r="IT3" s="70"/>
+      <c r="IU3" s="71"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="n">
@@ -6509,10 +6454,10 @@
         <v>141</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6527,10 +6472,10 @@
         <v>144</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6545,10 +6490,10 @@
         <v>147</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6563,10 +6508,10 @@
         <v>141</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6581,10 +6526,10 @@
         <v>144</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6599,10 +6544,10 @@
         <v>147</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6617,10 +6562,10 @@
         <v>141</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6635,10 +6580,10 @@
         <v>144</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6653,10 +6598,10 @@
         <v>147</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6671,10 +6616,10 @@
         <v>141</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6689,10 +6634,10 @@
         <v>144</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6707,10 +6652,10 @@
         <v>147</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -6738,7 +6683,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="H23:J23 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6911,8 +6856,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="1" sqref="H23:J23 A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7594,7 +7539,7 @@
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="H23:J23 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7865,7 +7810,7 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="H23:J23 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8340,7 +8285,7 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="H23:J23 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8532,8 +8477,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="H23:J23 A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9185,7 +9130,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>76</v>
@@ -9198,13 +9143,13 @@
         <v>173</v>
       </c>
       <c r="I19" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="J19" s="39" t="s">
-        <v>183</v>
-      </c>
       <c r="K19" s="21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M19" s="39"/>
       <c r="N19" s="21" t="s">
@@ -9238,7 +9183,7 @@
         <v>180</v>
       </c>
       <c r="K20" s="21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M20" s="39"/>
       <c r="N20" s="21" t="s">
@@ -9272,7 +9217,7 @@
         <v>180</v>
       </c>
       <c r="K21" s="21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M21" s="39"/>
       <c r="N21" s="21" t="s">
@@ -9306,7 +9251,7 @@
         <v>180</v>
       </c>
       <c r="K22" s="21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M22" s="39"/>
       <c r="N22" s="21" t="s">
@@ -9340,7 +9285,7 @@
         <v>180</v>
       </c>
       <c r="K23" s="21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M23" s="39"/>
       <c r="N23" s="21" t="s">
@@ -9374,7 +9319,7 @@
         <v>180</v>
       </c>
       <c r="K24" s="21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M24" s="39"/>
       <c r="N24" s="21" t="s">
@@ -9408,7 +9353,7 @@
         <v>180</v>
       </c>
       <c r="K25" s="21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M25" s="39"/>
       <c r="N25" s="21" t="s">
@@ -9471,7 +9416,7 @@
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="H23:J23 A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9502,7 +9447,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -9532,31 +9477,31 @@
         <v>17</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>189</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>19</v>
@@ -9565,16 +9510,16 @@
         <v>20</v>
       </c>
       <c r="Q2" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="R2" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="S2" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="T2" s="33" t="s">
         <v>192</v>
-      </c>
-      <c r="T2" s="33" t="s">
-        <v>193</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -9609,43 +9554,43 @@
         <v>140</v>
       </c>
       <c r="H3" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="L3" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="M3" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="N3" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="O3" s="16" t="s">
         <v>200</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>201</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>24</v>
       </c>
       <c r="Q3" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="R3" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="S3" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="S3" s="40" t="s">
+      <c r="T3" s="40" t="s">
         <v>204</v>
-      </c>
-      <c r="T3" s="40" t="s">
-        <v>205</v>
       </c>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -9669,10 +9614,10 @@
         <v>172</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>1</v>
@@ -9687,7 +9632,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="41"/>
       <c r="P4" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q4" s="0" t="s">
         <v>176</v>
@@ -9705,13 +9650,13 @@
         <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>2</v>
@@ -9728,7 +9673,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="41"/>
       <c r="P5" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="0" t="s">
         <v>176</v>
@@ -9746,13 +9691,13 @@
         <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>3</v>
@@ -9769,7 +9714,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="41"/>
       <c r="P6" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q6" s="0" t="s">
         <v>176</v>
@@ -9787,13 +9732,13 @@
         <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>4</v>
@@ -9810,7 +9755,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="41"/>
       <c r="P7" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="0" t="s">
         <v>176</v>
@@ -9828,13 +9773,13 @@
         <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>5</v>
@@ -9851,7 +9796,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="41"/>
       <c r="P8" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="0" t="s">
         <v>176</v>
@@ -9869,13 +9814,13 @@
         <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>6</v>
@@ -9892,7 +9837,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="41"/>
       <c r="P9" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q9" s="0" t="s">
         <v>176</v>
@@ -9910,13 +9855,13 @@
         <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>7</v>
@@ -9933,7 +9878,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="41"/>
       <c r="P10" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="0" t="s">
         <v>176</v>
@@ -9942,47 +9887,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
-        <v>43101</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="42"/>
-      <c r="P11" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>228</v>
-      </c>
-    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9990,7 +9895,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" prompt="Enter a date on or after 01/01/2017" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A11" type="date">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" prompt="Enter a date on or after 01/01/2017" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A10" type="date">
       <formula1>"2736</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9998,7 +9903,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" prompt="Enter a value that is after LiveFrom date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B11" type="none">
+    <dataValidation allowBlank="true" operator="equal" prompt="Enter a value that is after LiveFrom date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B10" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10021,7 +9926,7 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="H23:J23 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10039,7 +9944,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -10064,35 +9969,35 @@
         <v>30</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
+        <v>185</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
@@ -10101,10 +10006,10 @@
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>162</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -10113,33 +10018,33 @@
       <c r="F3" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="n">
         <v>43101</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="28" t="s">
         <v>25</v>
       </c>
@@ -10147,38 +10052,38 @@
         <v>46</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
         <v>43101</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="28" t="s">
         <v>25</v>
       </c>
@@ -10191,27 +10096,27 @@
       <c r="F5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
